--- a/src/test/resources/com/Excel/Filters.xlsx
+++ b/src/test/resources/com/Excel/Filters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alluri\eclipse-workspace\BestBuy\src\test\resources\com\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D83F675-3513-4196-81AC-3388243EB741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA145F24-4BD8-4949-8FA2-F9F39244A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{34FECA37-135B-4486-9312-DD7EAF5E0B02}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{34FECA37-135B-4486-9312-DD7EAF5E0B02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Smart</t>
   </si>
   <si>
-    <t>Full HD (1080p)</t>
+    <t>LED</t>
   </si>
   <si>
-    <t>Top Rated</t>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>offer</t>
   </si>
 </sst>
 </file>
@@ -415,10 +419,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8794D2E9-5B80-4A01-BE4D-0C1C5565ED5F}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9E050-03D1-4CC8-BE19-A0D6B4941145}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
